--- a/biology/Botanique/Haricot_d'Espagne/Haricot_d'Espagne.xlsx
+++ b/biology/Botanique/Haricot_d'Espagne/Haricot_d'Espagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Haricot_d%27Espagne</t>
+          <t>Haricot_d'Espagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phaseolus coccineus
 Le Haricot d'Espagne, Haricot écarlate ou Haricot-fleur (Phaseolus coccineus L.) est une plante herbacée vivace de la famille des Fabacées, appréciée pour ses fleurs rouges écarlates ou blanches en bouquets s'épanouissant en été ou, pour certaines variétés, comme légume pour leurs graines comestibles.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Haricot_d%27Espagne</t>
+          <t>Haricot_d'Espagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Origine et distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce originaire des montagnes d'Amérique centrale et du Mexique.
-Phaseolus coccineus a été retrouvé lors de fouilles archéologiques au Mexique à Durango et à Puebla ainsi que dans les grottes de Tamaulipas sous sa forme sauvage. C'était une culture ancestrale des peuples de l'Anahuac qui fut tardivement introduite en Colombie[1]. C'est un bon exemple de plante qui n'est pas hémérochore.
+Phaseolus coccineus a été retrouvé lors de fouilles archéologiques au Mexique à Durango et à Puebla ainsi que dans les grottes de Tamaulipas sous sa forme sauvage. C'était une culture ancestrale des peuples de l'Anahuac qui fut tardivement introduite en Colombie. C'est un bon exemple de plante qui n'est pas hémérochore.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Haricot_d%27Espagne</t>
+          <t>Haricot_d'Espagne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À la différence des autres espèces du genre Phaseolus, c'est une plante vivace par sa racine pivotante tubérisée mais uniquement en climat chaud. C'est pour cette raison qu'elle est habituellement cultivée comme plante annuelle. Autre particularité qui la distingue des autres Phaseolus, lors de la germination, les cotylédons restent dans le sol (germination hypogée).
 Elle a des tiges volubiles pouvant atteindre quatre mètres de haut.
 Les feuilles, alternes, vert foncé, sont composées de trois folioles ovales-acuminées. 
 Les fleurs papilionacées, assez grandes, sont de couleur rouge écarlate chez le type (mais il existe des variétés à fleurs blanches ou bicolores rouge et blanc). La variété rouge attire les colibris. Ces fleurs sont groupées en grandes inflorescences (grappes) pouvant atteindre 20 centimètres de long.
-Les fruits sont des gousses, dont la déhiscence brusque contribue à la dispersion des graines. Celles-ci sont de grande taille (de 80 à 170 g pour 100 graines[2]) et de couleur variable selon les variétés, rose marbré, noir ou blanc. Il faut compter entre 4 et 5 mois pour obtenir des graines mures ce qui oblige à semer très tôt, début mai au plus tard[3].
+Les fruits sont des gousses, dont la déhiscence brusque contribue à la dispersion des graines. Celles-ci sont de grande taille (de 80 à 170 g pour 100 graines) et de couleur variable selon les variétés, rose marbré, noir ou blanc. Il faut compter entre 4 et 5 mois pour obtenir des graines mures ce qui oblige à semer très tôt, début mai au plus tard.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Haricot_d%27Espagne</t>
+          <t>Haricot_d'Espagne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,12 +595,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les haricots d'Espagne sont largement cultivés comme plante d'ornement pour leur port grimpant et leur floraison colorée, et beaucoup de gens qui les cultivent ne se doutent pas que c'est une plante comestible.
 Les jeunes gousses de certaines variétés sont comestibles comme haricots verts mais elles tendent à devenir rapidement filandreuses.
-Les graines de couleur blanche sont comestibles et peuvent être consommées comme haricots secs[3]. Les variétés colorées renferment des substances toxiques, tels que des inhibiteurs de trypsine et il faut donc les cuire avant de les consommer[3].
-Les racines tubérisées, riches en amidon, sont encore consommées par certains Amérindiens d'Amérique centrale. Elles sont toutefois susceptibles de contenir des substances toxiques[4].
+Les graines de couleur blanche sont comestibles et peuvent être consommées comme haricots secs. Les variétés colorées renferment des substances toxiques, tels que des inhibiteurs de trypsine et il faut donc les cuire avant de les consommer.
+Les racines tubérisées, riches en amidon, sont encore consommées par certains Amérindiens d'Amérique centrale. Elles sont toutefois susceptibles de contenir des substances toxiques.
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Haricot_d%27Espagne</t>
+          <t>Haricot_d'Espagne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,12 +633,52 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Noms communs
-haricot d'Espagne, haricot écarlate, haricot-fleur, haricot à bouquets. de : Feuerbohne, en : scarlet runner bean, es : judía encarnada mais aussi ayocote, botil et patol au Mexique, chomborote, piloy au Guatemala et cuba au Costa Rica[1].
+          <t>Noms communs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">haricot d'Espagne, haricot écarlate, haricot-fleur, haricot à bouquets. de : Feuerbohne, en : scarlet runner bean, es : judía encarnada mais aussi ayocote, botil et patol au Mexique, chomborote, piloy au Guatemala et cuba au Costa Rica.
 Synonyme : Phaseolus multiflorus
 La sous espèce Phaseolus coccineus subsp. darwinianus  est cultivée et habituellement appelée « haricot Botil » au Mexique.
-Quelques variétés
-'Aztec Half-Runner, appelé aussi « haricot patate » (non ramant, hauteur 1 m).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Haricot_d'Espagne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_d%27Espagne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Quelques variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>'Aztec Half-Runner, appelé aussi « haricot patate » (non ramant, hauteur 1 m).
 'Black Runner'
 'Case Knife'
 'Emergo' : fleurs blanches, gousses très large 40 cm de long, gros grains blancs
